--- a/colorFill.xlsx
+++ b/colorFill.xlsx
@@ -35,8 +35,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A10:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,181 +428,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Morning (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Afternoon (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Night (24.00-8.00)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="A10" s="1" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
